--- a/biology/Histoire de la zoologie et de la botanique/William_Frank_Pyburn/William_Frank_Pyburn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Frank_Pyburn/William_Frank_Pyburn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Frank Pyburn est un herpétologiste américain de l'Université du Texas à Arlington. Il est né en 1927 et mort en 2007.
 </t>
@@ -511,12 +523,14 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Geophis pyburni Campbell &amp; Murphy, 1977[1]
-Umbrivaga pyburni Markezich &amp; Dixon, 1979[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Geophis pyburni Campbell &amp; Murphy, 1977
+Umbrivaga pyburni Markezich &amp; Dixon, 1979
 Otophryne pyburni Campbell &amp; Clarke, 1998
-Bachia pyburni Kizirian &amp; McDiarmid, 1998[1]</t>
+Bachia pyburni Kizirian &amp; McDiarmid, 1998</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Allobates myersi (Pyburn, 1981)
